--- a/BD/dicionario de dados ay ray.xlsx
+++ b/BD/dicionario de dados ay ray.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12570" windowHeight="11985"/>
+    <workbookView windowWidth="22368" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="105">
   <si>
     <t>DICIONÁRIO DE DADOS</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>valor pago dos produtos indivuidualmente no período da compra obs: valor do produto pode estar desatualizado/diferente da tabela prod dependendo da data da compra</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>imagem do produto</t>
   </si>
   <si>
     <t>TABELA tb_produtos</t>
@@ -330,9 +336,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -360,15 +366,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,21 +376,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,7 +390,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,47 +404,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,24 +434,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,6 +448,67 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -531,49 +537,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,133 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,11 +759,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,23 +777,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,32 +794,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,6 +815,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -855,152 +861,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1016,66 +1022,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Ênfase 6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Ênfase 6" xfId="2" builtinId="51"/>
-    <cellStyle name="20% - Ênfase 6" xfId="3" builtinId="50"/>
-    <cellStyle name="40% - Ênfase 5" xfId="4" builtinId="47"/>
-    <cellStyle name="Ênfase 5" xfId="5" builtinId="45"/>
-    <cellStyle name="Ênfase 4" xfId="6" builtinId="41"/>
-    <cellStyle name="Título 4" xfId="7" builtinId="19"/>
-    <cellStyle name="60% - Ênfase 3" xfId="8" builtinId="40"/>
-    <cellStyle name="20% - Ênfase 3" xfId="9" builtinId="38"/>
-    <cellStyle name="Ênfase 3" xfId="10" builtinId="37"/>
-    <cellStyle name="Título 3" xfId="11" builtinId="18"/>
-    <cellStyle name="60% - Ênfase 2" xfId="12" builtinId="36"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23"/>
-    <cellStyle name="40% - Ênfase 2" xfId="14" builtinId="35"/>
-    <cellStyle name="60% - Ênfase 5" xfId="15" builtinId="48"/>
-    <cellStyle name="Ênfase 2" xfId="16" builtinId="33"/>
-    <cellStyle name="Ênfase 6" xfId="17" builtinId="49"/>
-    <cellStyle name="40% - Ênfase 1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Ênfase 1" xfId="19" builtinId="30"/>
-    <cellStyle name="60% - Ênfase 4" xfId="20" builtinId="44"/>
-    <cellStyle name="Ênfase 1" xfId="21" builtinId="29"/>
-    <cellStyle name="40% - Ênfase 4" xfId="22" builtinId="43"/>
-    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Ênfase 4" xfId="24" builtinId="42"/>
-    <cellStyle name="Saída" xfId="25" builtinId="21"/>
-    <cellStyle name="Hyperlink seguido" xfId="26" builtinId="9"/>
-    <cellStyle name="Moeda [0]" xfId="27" builtinId="7"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bom" xfId="29" builtinId="26"/>
-    <cellStyle name="40% - Ênfase 3" xfId="30" builtinId="39"/>
-    <cellStyle name="Texto de Aviso" xfId="31" builtinId="11"/>
-    <cellStyle name="Cálculo" xfId="32" builtinId="22"/>
-    <cellStyle name="Entrada" xfId="33" builtinId="20"/>
-    <cellStyle name="Texto Explicativo" xfId="34" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Título" xfId="36" builtinId="15"/>
-    <cellStyle name="Observação" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - Ênfase 2" xfId="38" builtinId="34"/>
-    <cellStyle name="60% - Ênfase 1" xfId="39" builtinId="32"/>
-    <cellStyle name="Título 2" xfId="40" builtinId="17"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8"/>
-    <cellStyle name="Célula Vinculada" xfId="42" builtinId="24"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Porcentagem" xfId="44" builtinId="5"/>
-    <cellStyle name="Neutro" xfId="45" builtinId="28"/>
-    <cellStyle name="20% - Ênfase 5" xfId="46" builtinId="46"/>
-    <cellStyle name="Moeda" xfId="47" builtinId="4"/>
-    <cellStyle name="Comma [0]" xfId="48" builtinId="6"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1346,17 +1346,17 @@
   <sheetPr/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="22.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="35.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="13.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="10.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="22.1388888888889" customWidth="1"/>
+    <col min="6" max="6" width="35.8611111111111" customWidth="1"/>
+    <col min="7" max="7" width="13.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1925,101 +1925,101 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>4</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5" t="s">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>8</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>4.2</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5" t="s">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>50</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>50</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2082,104 +2082,123 @@
       <c r="A43" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>4</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="4">
         <v>4</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7" t="s">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="4">
         <v>6.2</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7" t="s">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="4">
         <v>3</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="4">
         <v>5.2</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="4">
+        <v>255</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2213,7 +2232,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>10</v>
@@ -2233,109 +2252,109 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="4">
         <v>4</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="4">
         <v>50</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="4">
         <v>5.2</v>
       </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55" s="7" t="s">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="4">
         <v>100</v>
       </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G56" s="7" t="s">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="4">
         <v>1</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57" s="7" t="s">
+      <c r="E57" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2369,7 +2388,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>10</v>
@@ -2382,28 +2401,28 @@
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="7" t="s">
+      <c r="A62" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="4">
         <v>50</v>
       </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G62" s="7" t="s">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>13</v>
       </c>
     </row>
